--- a/DataSource/excel/ship.xlsx
+++ b/DataSource/excel/ship.xlsx
@@ -44,7 +44,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1</t>
+shipstyle
+</t>
         </r>
         <r>
           <rPr>
@@ -54,8 +55,7 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：中国造
-2：日本造
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>foodCapacity</t>
+  </si>
+  <si>
+    <t>卡鲁提拉号</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -718,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -872,6 +875,56 @@
       </c>
       <c r="P6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>1200</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/ship.xlsx
+++ b/DataSource/excel/ship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ship.csv" sheetId="1" r:id="rId1"/>

--- a/DataSource/excel/ship.xlsx
+++ b/DataSource/excel/ship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="180" windowWidth="24640" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ship.csv" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>cannonNum</t>
   </si>
   <si>
-    <t>cannonPower</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>卡鲁提拉号</t>
+  </si>
+  <si>
+    <t>cannonId</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -597,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -609,10 +609,10 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
       </c>
       <c r="M1" t="s">
         <v>15</v>
@@ -621,10 +621,10 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>

--- a/DataSource/excel/ship.xlsx
+++ b/DataSource/excel/ship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="180" windowWidth="24640" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ship.csv" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>Yujie Liu</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -82,18 +82,12 @@
     <t>走舸船</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>style</t>
   </si>
   <si>
-    <t>capacity</t>
-  </si>
-  <si>
     <t>duration</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>speed</t>
   </si>
   <si>
-    <t>cannonNum</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
@@ -128,12 +119,6 @@
   </si>
   <si>
     <t>maxSailorNum</t>
-  </si>
-  <si>
-    <t>spareRoomNum</t>
-  </si>
-  <si>
-    <t>foodCapacity</t>
   </si>
   <si>
     <t>卡鲁提拉号</t>
@@ -560,24 +545,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -585,10 +568,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -597,37 +580,22 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -635,49 +603,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -691,48 +644,33 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
       <c r="I3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -741,48 +679,33 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>1500</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -791,48 +714,33 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G5">
+        <v>5000</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>55</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>5000</v>
-      </c>
-      <c r="K5">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>45</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -841,90 +749,60 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>74000</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I6">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="J6">
-        <v>74000</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>60</v>
-      </c>
-      <c r="L6">
-        <v>120</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>30</v>
-      </c>
-      <c r="O6">
         <v>3</v>
       </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>1200</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>2</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>1200</v>
-      </c>
-      <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/ship.xlsx
+++ b/DataSource/excel/ship.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2680" windowWidth="26960" windowHeight="14040" tabRatio="500"/>
+    <workbookView xWindow="7200" yWindow="1560" windowWidth="26960" windowHeight="14040" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ship" sheetId="1" r:id="rId1"/>
+    <sheet name="ship.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -365,7 +365,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
